--- a/www/IndicatorsPerCountry/Senegal_GDPperCapita_TerritorialRef_1960_2012_CCode_686.xlsx
+++ b/www/IndicatorsPerCountry/Senegal_GDPperCapita_TerritorialRef_1960_2012_CCode_686.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Senegal_GDPperCapita_TerritorialRef_1960_2012_CCode_686.xlsx
+++ b/www/IndicatorsPerCountry/Senegal_GDPperCapita_TerritorialRef_1960_2012_CCode_686.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1259</t>
-  </si>
-  <si>
-    <t>1281</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>1324</t>
-  </si>
-  <si>
-    <t>1346</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>1388</t>
-  </si>
-  <si>
-    <t>1409</t>
-  </si>
-  <si>
-    <t>1429</t>
-  </si>
-  <si>
-    <t>1448</t>
-  </si>
-  <si>
-    <t>1445</t>
-  </si>
-  <si>
-    <t>1475</t>
-  </si>
-  <si>
-    <t>1487</t>
-  </si>
-  <si>
-    <t>1507</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>1511</t>
-  </si>
-  <si>
-    <t>1508</t>
-  </si>
-  <si>
-    <t>1449</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>1435</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>1436</t>
-  </si>
-  <si>
-    <t>1315</t>
-  </si>
-  <si>
-    <t>1329</t>
-  </si>
-  <si>
-    <t>1396</t>
-  </si>
-  <si>
-    <t>1403</t>
-  </si>
-  <si>
-    <t>1306</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>1268</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>1255</t>
-  </si>
-  <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t>1285</t>
-  </si>
-  <si>
-    <t>1308</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>1253.90125528</t>
-  </si>
-  <si>
-    <t>1250.81759538</t>
-  </si>
-  <si>
-    <t>1232.85863418</t>
-  </si>
-  <si>
-    <t>1217.24394507</t>
-  </si>
-  <si>
-    <t>1186.46029204</t>
-  </si>
-  <si>
-    <t>1218.47684776</t>
-  </si>
-  <si>
-    <t>1211.63076463</t>
-  </si>
-  <si>
-    <t>1219.00002398</t>
-  </si>
-  <si>
-    <t>1258.43645487</t>
-  </si>
-  <si>
-    <t>1307.11610115</t>
-  </si>
-  <si>
-    <t>1318.09536926</t>
-  </si>
-  <si>
-    <t>1343.44543764</t>
-  </si>
-  <si>
-    <t>1317.49602855</t>
-  </si>
-  <si>
-    <t>1368.80249322</t>
-  </si>
-  <si>
-    <t>1410.72828579</t>
-  </si>
-  <si>
-    <t>1450.74228495</t>
-  </si>
-  <si>
-    <t>1447.07667172</t>
-  </si>
-  <si>
-    <t>1479.05936819</t>
-  </si>
-  <si>
-    <t>1493.66739807</t>
-  </si>
-  <si>
-    <t>1485.1299779</t>
-  </si>
-  <si>
-    <t>1506.85732895</t>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2146</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2246</t>
+  </si>
+  <si>
+    <t>2278</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2351</t>
+  </si>
+  <si>
+    <t>2370</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2389</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>2287</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>2096</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>2236</t>
+  </si>
+  <si>
+    <t>2082</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>2168</t>
+  </si>
+  <si>
+    <t>2153</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1982.62595787466</t>
+  </si>
+  <si>
+    <t>1942.92672653003</t>
+  </si>
+  <si>
+    <t>1906.82386892074</t>
+  </si>
+  <si>
+    <t>1847.59827373069</t>
+  </si>
+  <si>
+    <t>1886.54281966775</t>
+  </si>
+  <si>
+    <t>1866.34228502269</t>
+  </si>
+  <si>
+    <t>1866.39106308534</t>
+  </si>
+  <si>
+    <t>1915.42965790462</t>
+  </si>
+  <si>
+    <t>1978.09642159315</t>
+  </si>
+  <si>
+    <t>1983.52404748961</t>
+  </si>
+  <si>
+    <t>2009.94228319219</t>
+  </si>
+  <si>
+    <t>1959.61409887651</t>
+  </si>
+  <si>
+    <t>2025.02345473418</t>
+  </si>
+  <si>
+    <t>2074.95381162079</t>
+  </si>
+  <si>
+    <t>2121.1586016431</t>
+  </si>
+  <si>
+    <t>2104.43690696656</t>
+  </si>
+  <si>
+    <t>2137.67164678246</t>
+  </si>
+  <si>
+    <t>2146.79146464314</t>
+  </si>
+  <si>
+    <t>2129.33639483785</t>
+  </si>
+  <si>
+    <t>2151.32470542</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>2163</t>
+  </si>
+  <si>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>2224</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2403</t>
   </si>
   <si>
     <t>Description</t>
@@ -1351,6 +1369,108 @@
         <v>65</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>686.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>686.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>686.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>686.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>686.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>686.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1366,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
